--- a/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\2016SB5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D45B53-B7B3-4187-AD72-933BDA972D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8193191-39CE-4B9A-A2EF-532CFF414AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>metric</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>pr1</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$28</c:f>
+              <c:f>Sheet2!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1906,7 +1909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2035,7 +2038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2164,7 +2167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2291,7 +2294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2420,7 +2423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2547,7 +2550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4005,16 +4008,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>79562</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>207532</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>242168</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>155762</xdr:rowOff>
+      <xdr:rowOff>34535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4043,16 +4046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>235322</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218004</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>185120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31377</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306348</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4381,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2634B536-5F71-4955-8BD1-0C94F2FA36C2}">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B46" sqref="B46:L46"/>
     </sheetView>
   </sheetViews>
@@ -13345,10 +13348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14261,17 +14264,42 @@
       <c r="W19"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>0.419259259259259</v>
+      </c>
+      <c r="C20">
+        <v>0.38518518518518502</v>
+      </c>
+      <c r="D20">
+        <v>0.31555555555555498</v>
+      </c>
+      <c r="E20">
+        <v>0.284444444444444</v>
+      </c>
+      <c r="F20">
+        <v>0.28296296296296197</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>0.161481481481481</v>
+      </c>
+      <c r="I20">
+        <v>0.10222222222222201</v>
+      </c>
+      <c r="J20">
+        <v>8.4444444444444405E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.3703703703703699E-2</v>
+      </c>
+      <c r="L20">
+        <v>4.4444444444444002E-3</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -14286,40 +14314,40 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.53037037037037005</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.43851851851851797</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.45333333333333298</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>0.38370370370370299</v>
       </c>
       <c r="F21">
-        <v>0.4</v>
+        <v>0.37037037037037002</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.26814814814814802</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.18518518518518501</v>
       </c>
       <c r="I21">
-        <v>0.7</v>
+        <v>0.145185185185185</v>
       </c>
       <c r="J21">
-        <v>0.8</v>
+        <v>8.5925925925925906E-2</v>
       </c>
       <c r="K21">
-        <v>0.9</v>
+        <v>7.25925925925925E-2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>1.0370370370370301E-2</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -14334,125 +14362,122 @@
       <c r="W21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="B22">
-        <v>0.12896636680937801</v>
+        <f>B21-B20</f>
+        <v>0.11111111111111105</v>
       </c>
       <c r="C22">
-        <v>0.127843215188257</v>
+        <f t="shared" ref="C22:L22" si="6">C21-C20</f>
+        <v>5.3333333333332955E-2</v>
       </c>
       <c r="D22">
-        <v>0.12665803510486001</v>
+        <f t="shared" si="6"/>
+        <v>0.137777777777778</v>
       </c>
       <c r="E22">
-        <v>0.11968810518247899</v>
+        <f t="shared" si="6"/>
+        <v>9.9259259259258992E-2</v>
       </c>
       <c r="F22">
-        <v>0.12039566666865401</v>
+        <f t="shared" si="6"/>
+        <v>8.7407407407408044E-2</v>
       </c>
       <c r="G22">
-        <v>0.11852154294405901</v>
+        <f t="shared" si="6"/>
+        <v>6.8148148148148013E-2</v>
       </c>
       <c r="H22">
-        <v>0.112200166555197</v>
+        <f t="shared" si="6"/>
+        <v>2.3703703703704004E-2</v>
       </c>
       <c r="I22">
-        <v>0.116074919368526</v>
+        <f t="shared" si="6"/>
+        <v>4.2962962962962994E-2</v>
       </c>
       <c r="J22">
-        <v>0.110294253440294</v>
+        <f t="shared" si="6"/>
+        <v>1.4814814814815003E-3</v>
       </c>
       <c r="K22">
-        <v>0.10857211537226</v>
+        <f t="shared" si="6"/>
+        <v>4.8888888888888801E-2</v>
       </c>
       <c r="L22">
-        <v>0.106007464655154</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>5.9259259259259005E-3</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23">
-        <v>0.110006512214677</v>
-      </c>
-      <c r="C23">
-        <v>0.107994577435072</v>
-      </c>
-      <c r="D23">
-        <v>0.100601131662111</v>
-      </c>
-      <c r="E23">
-        <v>0.102118294213748</v>
-      </c>
-      <c r="F23">
-        <v>0.101635927409014</v>
-      </c>
-      <c r="G23">
-        <v>9.5655032003671897E-2</v>
-      </c>
-      <c r="H23">
-        <v>9.3724829601848303E-2</v>
-      </c>
-      <c r="I23">
-        <v>9.6151841328196805E-2</v>
-      </c>
-      <c r="J23">
-        <v>9.2095315236448996E-2</v>
-      </c>
-      <c r="K23">
-        <v>8.9935989417280399E-2</v>
-      </c>
-      <c r="L23">
-        <v>8.7963034747812002E-2</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B24">
-        <f>B23-B22</f>
-        <v>-1.8959854594701009E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:L24" si="6">C23-C22</f>
-        <v>-1.9848637753185003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
-        <v>-2.605690344274901E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
-        <v>-1.7569810968730989E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
-        <v>-1.8759739259640001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
-        <v>-2.2866510940387108E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
-        <v>-1.8475336953348701E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>-1.9923078040329195E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
-        <v>-1.8198938203845008E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
-        <v>-1.8636125954979599E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
-        <v>-1.8044429907341994E-2</v>
+        <v>1</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14468,40 +14493,40 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25">
-        <v>3.18763444246178E-2</v>
+        <v>0.12896636680937801</v>
       </c>
       <c r="C25">
-        <v>2.6521196933422302E-2</v>
+        <v>0.127843215188257</v>
       </c>
       <c r="D25">
-        <v>2.4902422376077E-2</v>
+        <v>0.12665803510486001</v>
       </c>
       <c r="E25">
-        <v>2.3874567289282601E-2</v>
+        <v>0.11968810518247899</v>
       </c>
       <c r="F25">
-        <v>2.2783546019296701E-2</v>
+        <v>0.12039566666865401</v>
       </c>
       <c r="G25">
-        <v>2.1743542822337699E-2</v>
+        <v>0.11852154294405901</v>
       </c>
       <c r="H25">
-        <v>1.6767236000373199E-2</v>
+        <v>0.112200166555197</v>
       </c>
       <c r="I25">
-        <v>1.6835798420584198E-2</v>
+        <v>0.116074919368526</v>
       </c>
       <c r="J25">
-        <v>1.6048275759206799E-2</v>
+        <v>0.110294253440294</v>
       </c>
       <c r="K25">
-        <v>1.8595516111696801E-2</v>
+        <v>0.10857211537226</v>
       </c>
       <c r="L25">
-        <v>1.7596380894269199E-2</v>
+        <v>0.106007464655154</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -14509,83 +14534,83 @@
         <v>155</v>
       </c>
       <c r="B26">
-        <v>0.21523426844905599</v>
+        <v>0.110006512214677</v>
       </c>
       <c r="C26">
-        <v>0.14392318472781501</v>
+        <v>0.107994577435072</v>
       </c>
       <c r="D26">
-        <v>0.181607788441079</v>
+        <v>0.100601131662111</v>
       </c>
       <c r="E26">
-        <v>0.106935924174963</v>
+        <v>0.102118294213748</v>
       </c>
       <c r="F26">
-        <v>0.116703351594105</v>
+        <v>0.101635927409014</v>
       </c>
       <c r="G26">
-        <v>0.128507338851193</v>
+        <v>9.5655032003671897E-2</v>
       </c>
       <c r="H26">
-        <v>5.2972051340737299E-2</v>
+        <v>9.3724829601848303E-2</v>
       </c>
       <c r="I26">
-        <v>5.9853102644698897E-2</v>
+        <v>9.6151841328196805E-2</v>
       </c>
       <c r="J26">
-        <v>5.2187691626350202E-2</v>
+        <v>9.2095315236448996E-2</v>
       </c>
       <c r="K26">
-        <v>3.9663513477737299E-2</v>
+        <v>8.9935989417280399E-2</v>
       </c>
       <c r="L26">
-        <v>4.5729414435914897E-2</v>
+        <v>8.7963034747812002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>B26-B25</f>
-        <v>0.18335792402443818</v>
+        <v>-1.8959854594701009E-2</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>0.1174019877943927</v>
+        <v>-1.9848637753185003E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="7"/>
-        <v>0.15670536606500199</v>
+        <v>-2.605690344274901E-2</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
-        <v>8.3061356885680407E-2</v>
+        <v>-1.7569810968730989E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
-        <v>9.3919805574808293E-2</v>
+        <v>-1.8759739259640001E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>0.1067637960288553</v>
+        <v>-2.2866510940387108E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>3.6204815340364099E-2</v>
+        <v>-1.8475336953348701E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>4.3017304224114698E-2</v>
+        <v>-1.9923078040329195E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>3.6139415867143407E-2</v>
+        <v>-1.8198938203845008E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>2.1067997366040498E-2</v>
+        <v>-1.8636125954979599E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
-        <v>2.8133033541645699E-2</v>
+        <v>-1.8044429907341994E-2</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -14601,40 +14626,40 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28">
-        <v>0.209103263856945</v>
+        <v>3.18763444246178E-2</v>
       </c>
       <c r="C28">
-        <v>0.20145038742409599</v>
+        <v>2.6521196933422302E-2</v>
       </c>
       <c r="D28">
-        <v>0.19554629200243501</v>
+        <v>2.4902422376077E-2</v>
       </c>
       <c r="E28">
-        <v>0.18787835863237101</v>
+        <v>2.3874567289282601E-2</v>
       </c>
       <c r="F28">
-        <v>0.184789513332728</v>
+        <v>2.2783546019296701E-2</v>
       </c>
       <c r="G28">
-        <v>0.17904921855818901</v>
+        <v>2.1743542822337699E-2</v>
       </c>
       <c r="H28">
-        <v>0.17199607430108799</v>
+        <v>1.6767236000373199E-2</v>
       </c>
       <c r="I28">
-        <v>0.16753014673479799</v>
+        <v>1.6835798420584198E-2</v>
       </c>
       <c r="J28">
-        <v>0.16053697640269499</v>
+        <v>1.6048275759206799E-2</v>
       </c>
       <c r="K28">
-        <v>0.15470065886069201</v>
+        <v>1.8595516111696801E-2</v>
       </c>
       <c r="L28">
-        <v>0.15013159966174</v>
+        <v>1.7596380894269199E-2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -14642,83 +14667,83 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.188579544033804</v>
+        <v>0.21523426844905599</v>
       </c>
       <c r="C29">
-        <v>0.18517262530790199</v>
+        <v>0.14392318472781501</v>
       </c>
       <c r="D29">
-        <v>0.178669774896596</v>
+        <v>0.181607788441079</v>
       </c>
       <c r="E29">
-        <v>0.17560794609606201</v>
+        <v>0.106935924174963</v>
       </c>
       <c r="F29">
-        <v>0.16029031786710099</v>
+        <v>0.116703351594105</v>
       </c>
       <c r="G29">
-        <v>0.157873209271431</v>
+        <v>0.128507338851193</v>
       </c>
       <c r="H29">
-        <v>0.152612658605912</v>
+        <v>5.2972051340737299E-2</v>
       </c>
       <c r="I29">
-        <v>0.14641301667894099</v>
+        <v>5.9853102644698897E-2</v>
       </c>
       <c r="J29">
-        <v>0.14369877218827701</v>
+        <v>5.2187691626350202E-2</v>
       </c>
       <c r="K29">
-        <v>0.13712089375466399</v>
+        <v>3.9663513477737299E-2</v>
       </c>
       <c r="L29">
-        <v>0.12978462380310801</v>
+        <v>4.5729414435914897E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>-2.0523719823140996E-2</v>
+        <v>0.18335792402443818</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>-1.6277762116194E-2</v>
+        <v>0.1174019877943927</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>-1.6876517105839012E-2</v>
+        <v>0.15670536606500199</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>-1.2270412536309006E-2</v>
+        <v>8.3061356885680407E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>-2.4499195465627011E-2</v>
+        <v>9.3919805574808293E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>-2.1176009286758002E-2</v>
+        <v>0.1067637960288553</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>-1.9383415695175987E-2</v>
+        <v>3.6204815340364099E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>-2.1117130055856997E-2</v>
+        <v>4.3017304224114698E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>-1.6838204214417979E-2</v>
+        <v>3.6139415867143407E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>-1.7579765106028017E-2</v>
+        <v>2.1067997366040498E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>-2.0346975858631988E-2</v>
+        <v>2.8133033541645699E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -14734,40 +14759,40 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>2.0779968403143799E-2</v>
+        <v>0.209103263856945</v>
       </c>
       <c r="C31">
-        <v>1.4801826504551601E-2</v>
+        <v>0.20145038742409599</v>
       </c>
       <c r="D31">
-        <v>1.2421686890274199E-2</v>
+        <v>0.19554629200243501</v>
       </c>
       <c r="E31">
-        <v>1.7345608860947302E-2</v>
+        <v>0.18787835863237101</v>
       </c>
       <c r="F31">
-        <v>1.1485350008138001E-2</v>
+        <v>0.184789513332728</v>
       </c>
       <c r="G31">
-        <v>1.55888529501717E-2</v>
+        <v>0.17904921855818901</v>
       </c>
       <c r="H31">
-        <v>1.18686240442999E-2</v>
+        <v>0.17199607430108799</v>
       </c>
       <c r="I31">
-        <v>1.4857721674894801E-2</v>
+        <v>0.16753014673479799</v>
       </c>
       <c r="J31">
-        <v>1.5698867700739801E-2</v>
+        <v>0.16053697640269499</v>
       </c>
       <c r="K31">
-        <v>1.3978388635172499E-2</v>
+        <v>0.15470065886069201</v>
       </c>
       <c r="L31">
-        <v>1.27653828984501E-2</v>
+        <v>0.15013159966174</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -14775,83 +14800,83 @@
         <v>155</v>
       </c>
       <c r="B32">
-        <v>5.5678393924521001E-2</v>
+        <v>0.188579544033804</v>
       </c>
       <c r="C32">
-        <v>5.76642770699691E-2</v>
+        <v>0.18517262530790199</v>
       </c>
       <c r="D32">
-        <v>4.5943729149275199E-2</v>
+        <v>0.178669774896596</v>
       </c>
       <c r="E32">
-        <v>4.5691713548161102E-2</v>
+        <v>0.17560794609606201</v>
       </c>
       <c r="F32">
-        <v>3.5981518365751503E-2</v>
+        <v>0.16029031786710099</v>
       </c>
       <c r="G32">
-        <v>3.26783460292649E-2</v>
+        <v>0.157873209271431</v>
       </c>
       <c r="H32">
-        <v>2.83807765587657E-2</v>
+        <v>0.152612658605912</v>
       </c>
       <c r="I32">
-        <v>2.7267785582200901E-2</v>
+        <v>0.14641301667894099</v>
       </c>
       <c r="J32">
-        <v>2.7110399738562101E-2</v>
+        <v>0.14369877218827701</v>
       </c>
       <c r="K32">
-        <v>2.1221628228729798E-2</v>
+        <v>0.13712089375466399</v>
       </c>
       <c r="L32">
-        <v>1.9595234617052398E-2</v>
+        <v>0.12978462380310801</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>3.4898425521377202E-2</v>
+        <v>-2.0523719823140996E-2</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>4.2862450565417501E-2</v>
+        <v>-1.6277762116194E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>3.3522042259001003E-2</v>
+        <v>-1.6876517105839012E-2</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>2.83461046872138E-2</v>
+        <v>-1.2270412536309006E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>2.44961683576135E-2</v>
+        <v>-2.4499195465627011E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>1.7089493079093201E-2</v>
+        <v>-2.1176009286758002E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>1.6512152514465799E-2</v>
+        <v>-1.9383415695175987E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>1.2410063907306101E-2</v>
+        <v>-2.1117130055856997E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>1.1411532037822299E-2</v>
+        <v>-1.6838204214417979E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>7.2432395935572991E-3</v>
+        <v>-1.7579765106028017E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>6.8298517186022988E-3</v>
+        <v>-2.0346975858631988E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -14867,40 +14892,40 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34">
-        <v>2.6265462795475199E-2</v>
+        <v>2.0779968403143799E-2</v>
       </c>
       <c r="C34">
-        <v>2.5632443045131199E-2</v>
+        <v>1.4801826504551601E-2</v>
       </c>
       <c r="D34">
-        <v>2.47607412759672E-2</v>
+        <v>1.2421686890274199E-2</v>
       </c>
       <c r="E34">
-        <v>2.1346956173333001E-2</v>
+        <v>1.7345608860947302E-2</v>
       </c>
       <c r="F34">
-        <v>1.9494017872522099E-2</v>
+        <v>1.1485350008138001E-2</v>
       </c>
       <c r="G34">
-        <v>2.24869335075383E-2</v>
+        <v>1.55888529501717E-2</v>
       </c>
       <c r="H34">
-        <v>2.0964062626144E-2</v>
+        <v>1.18686240442999E-2</v>
       </c>
       <c r="I34">
-        <v>2.1802652994154199E-2</v>
+        <v>1.4857721674894801E-2</v>
       </c>
       <c r="J34">
-        <v>1.9415367713323198E-2</v>
+        <v>1.5698867700739801E-2</v>
       </c>
       <c r="K34">
-        <v>1.9231935037184799E-2</v>
+        <v>1.3978388635172499E-2</v>
       </c>
       <c r="L34">
-        <v>2.08590758346518E-2</v>
+        <v>1.27653828984501E-2</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -14908,83 +14933,83 @@
         <v>155</v>
       </c>
       <c r="B35">
-        <v>1.05969107607312E-2</v>
+        <v>5.5678393924521001E-2</v>
       </c>
       <c r="C35">
-        <v>1.04253698806467E-2</v>
+        <v>5.76642770699691E-2</v>
       </c>
       <c r="D35">
-        <v>9.9668927704972994E-3</v>
+        <v>4.5943729149275199E-2</v>
       </c>
       <c r="E35">
-        <v>9.3716204834612994E-3</v>
+        <v>4.5691713548161102E-2</v>
       </c>
       <c r="F35">
-        <v>9.5980363018065996E-3</v>
+        <v>3.5981518365751503E-2</v>
       </c>
       <c r="G35">
-        <v>1.03520207194863E-2</v>
+        <v>3.26783460292649E-2</v>
       </c>
       <c r="H35">
-        <v>7.6209291625345997E-3</v>
+        <v>2.83807765587657E-2</v>
       </c>
       <c r="I35">
-        <v>8.8257269881099002E-3</v>
+        <v>2.7267785582200901E-2</v>
       </c>
       <c r="J35">
-        <v>1.01831485443635E-2</v>
+        <v>2.7110399738562101E-2</v>
       </c>
       <c r="K35">
-        <v>9.3792699322571994E-3</v>
+        <v>2.1221628228729798E-2</v>
       </c>
       <c r="L35">
-        <v>7.5652287489686998E-3</v>
+        <v>1.9595234617052398E-2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>-1.5668552034744002E-2</v>
+        <v>3.4898425521377202E-2</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>-1.5207073164484499E-2</v>
+        <v>4.2862450565417501E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>-1.47938485054699E-2</v>
+        <v>3.3522042259001003E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>-1.1975335689871702E-2</v>
+        <v>2.83461046872138E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>-9.895981570715499E-3</v>
+        <v>2.44961683576135E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>-1.2134912788052E-2</v>
+        <v>1.7089493079093201E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>-1.3343133463609401E-2</v>
+        <v>1.6512152514465799E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>-1.2976926006044298E-2</v>
+        <v>1.2410063907306101E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>-9.2322191689596985E-3</v>
+        <v>1.1411532037822299E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>-9.8526651049275996E-3</v>
+        <v>7.2432395935572991E-3</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>-1.3293847085683101E-2</v>
+        <v>6.8298517186022988E-3</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15000,40 +15025,40 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37">
-        <v>4.159707604672E-4</v>
+        <v>2.6265462795475199E-2</v>
       </c>
       <c r="C37">
-        <v>1.839277139087E-3</v>
+        <v>2.5632443045131199E-2</v>
       </c>
       <c r="D37">
-        <v>1.4108072850780001E-4</v>
+        <v>2.47607412759672E-2</v>
       </c>
       <c r="E37">
-        <v>1.4794310108530999E-3</v>
+        <v>2.1346956173333001E-2</v>
       </c>
       <c r="F37">
-        <v>7.9268571265509998E-4</v>
+        <v>1.9494017872522099E-2</v>
       </c>
       <c r="G37">
-        <v>8.319415209344E-4</v>
+        <v>2.24869335075383E-2</v>
       </c>
       <c r="H37">
-        <v>4.0592200672370001E-4</v>
+        <v>2.0964062626144E-2</v>
       </c>
       <c r="I37">
-        <v>1.8718036529179001E-3</v>
+        <v>2.1802652994154199E-2</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.9415367713323198E-2</v>
       </c>
       <c r="K37">
-        <v>2.3599902444944002E-3</v>
+        <v>1.9231935037184799E-2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2.08590758346518E-2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -15041,83 +15066,338 @@
         <v>155</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1.05969107607312E-2</v>
       </c>
       <c r="C38">
+        <v>1.04253698806467E-2</v>
+      </c>
+      <c r="D38">
+        <v>9.9668927704972994E-3</v>
+      </c>
+      <c r="E38">
+        <v>9.3716204834612994E-3</v>
+      </c>
+      <c r="F38">
+        <v>9.5980363018065996E-3</v>
+      </c>
+      <c r="G38">
+        <v>1.03520207194863E-2</v>
+      </c>
+      <c r="H38">
+        <v>7.6209291625345997E-3</v>
+      </c>
+      <c r="I38">
+        <v>8.8257269881099002E-3</v>
+      </c>
+      <c r="J38">
+        <v>1.01831485443635E-2</v>
+      </c>
+      <c r="K38">
+        <v>9.3792699322571994E-3</v>
+      </c>
+      <c r="L38">
+        <v>7.5652287489686998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38-B37</f>
+        <v>-1.5668552034744002E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+        <v>-1.5207073164484499E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>-1.47938485054699E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>-1.1975335689871702E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>-9.895981570715499E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>-1.2134912788052E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>-1.3343133463609401E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>-1.2976926006044298E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>-9.2322191689596985E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>-9.8526651049275996E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="11"/>
+        <v>-1.3293847085683101E-2</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40">
+        <v>4.159707604672E-4</v>
+      </c>
+      <c r="C40">
+        <v>1.839277139087E-3</v>
+      </c>
+      <c r="D40">
+        <v>1.4108072850780001E-4</v>
+      </c>
+      <c r="E40">
+        <v>1.4794310108530999E-3</v>
+      </c>
+      <c r="F40">
+        <v>7.9268571265509998E-4</v>
+      </c>
+      <c r="G40">
+        <v>8.319415209344E-4</v>
+      </c>
+      <c r="H40">
+        <v>4.0592200672370001E-4</v>
+      </c>
+      <c r="I40">
+        <v>1.8718036529179001E-3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2.3599902444944002E-3</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>6.4387537026290001E-4</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>1.8245682020261E-3</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>5.3763440860210001E-4</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <v>6.9469715036849997E-4</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>5.3763440860210001E-4</v>
       </c>
-      <c r="K38">
+      <c r="K41">
         <v>8.8830083716929999E-4</v>
       </c>
-      <c r="L38">
+      <c r="L41">
         <v>1.3279876382555999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f>B38-B37</f>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>B41-B40</f>
         <v>-4.159707604672E-4</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:L42" si="12">C41-C40</f>
         <v>-1.1954017688240999E-3</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="11"/>
+      <c r="D42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.4108072850780001E-4</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="11"/>
+      <c r="E42" s="1">
+        <f t="shared" si="12"/>
         <v>3.4513719117300009E-4</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="11"/>
+      <c r="F42" s="1">
+        <f t="shared" si="12"/>
         <v>-7.9268571265509998E-4</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="11"/>
+      <c r="G42" s="1">
+        <f t="shared" si="12"/>
         <v>-2.9430711233229998E-4</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="11"/>
+      <c r="H42" s="1">
+        <f t="shared" si="12"/>
         <v>2.8877514364479995E-4</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="11"/>
+      <c r="I42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.8718036529179001E-3</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="11"/>
+      <c r="J42" s="1">
+        <f t="shared" si="12"/>
         <v>5.3763440860210001E-4</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="11"/>
+      <c r="K42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.4716894073251003E-3</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="11"/>
+      <c r="L42" s="1">
+        <f t="shared" si="12"/>
         <v>1.3279876382555999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>0.49118426092960599</v>
+      </c>
+      <c r="C43">
+        <v>0.44880928628258898</v>
+      </c>
+      <c r="D43">
+        <v>0.38557335841370899</v>
+      </c>
+      <c r="E43">
+        <v>0.34026784363832802</v>
+      </c>
+      <c r="F43">
+        <v>0.331232319327673</v>
+      </c>
+      <c r="G43">
+        <v>0.24028347920179599</v>
+      </c>
+      <c r="H43">
+        <v>0.203766105848182</v>
+      </c>
+      <c r="I43">
+        <v>0.12917500713059599</v>
+      </c>
+      <c r="J43">
+        <v>0.11167099547919</v>
+      </c>
+      <c r="K43">
+        <v>4.1056604074180499E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.82726993675838E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44">
+        <v>0.63749931927714498</v>
+      </c>
+      <c r="C44">
+        <v>0.54222364785119403</v>
+      </c>
+      <c r="D44">
+        <v>0.54794065231974398</v>
+      </c>
+      <c r="E44">
+        <v>0.47444049573630598</v>
+      </c>
+      <c r="F44">
+        <v>0.442443533497685</v>
+      </c>
+      <c r="G44">
+        <v>0.34830721309116203</v>
+      </c>
+      <c r="H44">
+        <v>0.25333773062618298</v>
+      </c>
+      <c r="I44">
+        <v>0.21519575803560001</v>
+      </c>
+      <c r="J44">
+        <v>0.144352257344876</v>
+      </c>
+      <c r="K44">
+        <v>0.14461574339351599</v>
+      </c>
+      <c r="L44">
+        <v>5.8309480792077803E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>B44-B43</f>
+        <v>0.146315058347539</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:L45" si="13">C44-C43</f>
+        <v>9.3414361568605053E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16236729390603499</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13417265209797796</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11121121417001201</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.10802373388936604</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="13"/>
+        <v>4.9571624778000978E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="13"/>
+        <v>8.6020750905004023E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="13"/>
+        <v>3.2681261865685998E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1035591393193355</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="13"/>
+        <v>4.0036781424494003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2016SB5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8193191-39CE-4B9A-A2EF-532CFF414AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DEA10A-98C8-EF4F-9DFA-FE5678082164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="007671"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="007671"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.11111111111111105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3333333333332955E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.137777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9259259259258992E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7407407407408044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8148148148148013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3703703703704004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2962962962962994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4814814814815003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8888888888888801E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9259259259259005E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADB5-7E47-9F95-A32B1AAC2113}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -790,7 +919,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -919,7 +1048,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1048,7 +1177,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -1175,7 +1304,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1304,7 +1433,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1674,10 +1803,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.73687048933621624"/>
+          <c:y val="0.16830069176373885"/>
+          <c:w val="0.23911635124259323"/>
+          <c:h val="0.53300669587085503"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1828,8 +1957,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="007671"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="007671"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.146315058347539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3414361568605053E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16236729390603499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13417265209797796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11121121417001201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10802373388936604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9571624778000978E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6020750905004023E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2681261865685998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1035591393193355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0036781424494003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36E9-8546-9FAC-71828183CD44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$31</c:f>
@@ -1958,7 +2216,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2087,7 +2345,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2216,7 +2474,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -2343,7 +2601,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2472,7 +2730,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2842,10 +3100,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.73697182592951338"/>
+          <c:y val="0.20209791140279162"/>
+          <c:w val="0.23970744061710758"/>
+          <c:h val="0.55553817563022356"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4388,14 +4646,14 @@
       <selection activeCell="B46" sqref="B46:L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4537,7 +4795,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4866,7 @@
         <v>3.0537634408602101E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +4937,7 @@
         <v>1.97849462365591E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +5008,7 @@
         <v>5.5591397849462003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +5079,7 @@
         <v>5.0358422939068101E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4892,7 +5150,7 @@
         <v>0.112716333845366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +5221,7 @@
         <v>0.14099590373783899</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5034,7 +5292,7 @@
         <v>0.33684587813619998</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5363,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5176,7 +5434,7 @@
         <v>8.7963034747812002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5247,7 +5505,7 @@
         <v>9.8424187329232499E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5318,7 +5576,7 @@
         <v>0.14532827122674299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5389,7 +5647,7 @@
         <v>5.0358422939068101E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5718,7 @@
         <v>7.1089477726574493E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5531,7 +5789,7 @@
         <v>7.5577828981054695E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5860,7 @@
         <v>8.4169425111250806E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5673,7 +5931,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -5744,7 +6002,7 @@
         <v>0.15053763440860199</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -5815,7 +6073,7 @@
         <v>0.187096774193548</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -5886,7 +6144,7 @@
         <v>0.467741935483871</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +6215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6286,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6357,7 @@
         <v>1.6648648648648599E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6170,7 +6428,7 @@
         <v>9.9459459459458992E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +6499,7 @@
         <v>6.0864864864864001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6312,7 +6570,7 @@
         <v>2.5963963963963901E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6383,7 +6641,7 @@
         <v>5.7073359073358997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6454,7 +6712,7 @@
         <v>6.7325611325611295E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6525,7 +6783,7 @@
         <v>0.35941312741312698</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6596,7 +6854,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6667,7 +6925,7 @@
         <v>4.5729414435914897E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6738,7 +6996,7 @@
         <v>4.9369348994921201E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6809,7 +7067,7 @@
         <v>0.11020317849335701</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6880,7 +7138,7 @@
         <v>2.5963963963963901E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6951,7 +7209,7 @@
         <v>3.7589146289146197E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7022,7 +7280,7 @@
         <v>3.8983969683969603E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7093,7 +7351,7 @@
         <v>4.7005460901022297E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7164,7 +7422,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7235,7 +7493,7 @@
         <v>8.21621621621621E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7306,7 +7564,7 @@
         <v>9.7297297297297303E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7377,7 +7635,7 @@
         <v>0.494054054054054</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +7706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7519,7 +7777,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7590,7 +7848,7 @@
         <v>5.65591397849462E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7661,7 +7919,7 @@
         <v>3.5806451612903099E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7990,7 @@
         <v>7.0322580645161004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -7803,7 +8061,7 @@
         <v>5.1164874551971301E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -7874,7 +8132,7 @@
         <v>0.177980030721966</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -7945,7 +8203,7 @@
         <v>0.225381464413722</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8016,7 +8274,7 @@
         <v>0.42509216589861698</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +8345,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8158,7 +8416,7 @@
         <v>0.12978462380310801</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8229,7 +8487,7 @@
         <v>0.14699987907790399</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8300,7 +8558,7 @@
         <v>0.19329192535780701</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8371,7 +8629,7 @@
         <v>5.1164874551971301E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8442,7 +8700,7 @@
         <v>9.7770139955623794E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8513,7 +8771,7 @@
         <v>0.105352811913295</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8584,7 +8842,7 @@
         <v>0.11433836469559799</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8655,7 +8913,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8726,7 +8984,7 @@
         <v>0.26236559139784899</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -8797,7 +9055,7 @@
         <v>0.31827956989247302</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -8868,7 +9126,7 @@
         <v>0.543010752688172</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +9197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9268,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9081,7 +9339,7 @@
         <v>7.3118279569891996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9152,7 +9410,7 @@
         <v>4.7311827956988996E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9223,7 +9481,7 @@
         <v>6.0322580645161003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9294,7 +9552,7 @@
         <v>1.28059395801331E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9365,7 +9623,7 @@
         <v>2.1121351766512999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9694,7 @@
         <v>2.573732718894E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9507,7 +9765,7 @@
         <v>0.34181515616999403</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9578,7 +9836,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9649,7 +9907,7 @@
         <v>1.9595234617052398E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9720,7 +9978,7 @@
         <v>2.1392172320925999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -9791,7 +10049,7 @@
         <v>8.6899192253336893E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -9862,7 +10120,7 @@
         <v>1.28059395801331E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -9933,7 +10191,7 @@
         <v>1.6031746031746001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +10262,7 @@
         <v>1.66558926437958E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10075,7 +10333,7 @@
         <v>2.4865359397932E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10146,7 +10404,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10217,7 +10475,7 @@
         <v>3.5483870967741901E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10288,7 +10546,7 @@
         <v>4.6236559139784902E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10359,7 +10617,7 @@
         <v>0.48172043010752602</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10430,7 +10688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10501,7 +10759,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10572,7 +10830,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10643,7 +10901,7 @@
         <v>1.8709677419354798E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10714,7 +10972,7 @@
         <v>5.9139784946236002E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -10785,7 +11043,7 @@
         <v>1.1136712749615001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -10856,7 +11114,7 @@
         <v>6.6743471582180998E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -10927,7 +11185,7 @@
         <v>8.9546850998463906E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -10998,7 +11256,7 @@
         <v>0.31571684587813598</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11069,7 +11327,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11398,7 @@
         <v>7.5652287489686998E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11211,7 +11469,7 @@
         <v>3.7008619384883701E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11282,7 +11540,7 @@
         <v>8.8649120032295303E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11353,7 +11611,7 @@
         <v>1.1136712749615001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11424,7 +11682,7 @@
         <v>3.2854582693292002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11495,7 +11753,7 @@
         <v>1.3278321304626899E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11566,7 +11824,7 @@
         <v>2.2282738789709999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11637,7 +11895,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11708,7 +11966,7 @@
         <v>3.2258064516128997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -11779,7 +12037,7 @@
         <v>0.18602150537634399</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -11850,7 +12108,7 @@
         <v>0.46989247311827897</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -11921,7 +12179,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -11992,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12063,7 +12321,7 @@
         <v>8.6021505376339999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12134,7 +12392,7 @@
         <v>8.6021505376339999E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12205,7 +12463,7 @@
         <v>1.0752688172039999E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12276,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12347,7 +12605,7 @@
         <v>2.1249359959036999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12418,7 +12676,7 @@
         <v>3.8376856118790999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12489,7 +12747,7 @@
         <v>4.3497183819764E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12560,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12631,7 +12889,7 @@
         <v>1.3279876382555999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12702,7 +12960,7 @@
         <v>1.9909711361929998E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -12773,7 +13031,7 @@
         <v>2.1761122844195001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -12844,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -12915,7 +13173,7 @@
         <v>7.5524833589340004E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -12986,7 +13244,7 @@
         <v>9.9547704386410011E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13057,7 +13315,7 @@
         <v>1.0224261370271001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13128,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13457,7 @@
         <v>4.3010752688172E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13270,7 +13528,7 @@
         <v>7.5268817204301001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13350,18 +13608,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13399,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13437,7 +13695,7 @@
         <v>8.3870967741935407E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13486,7 +13744,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <f>B3-B2</f>
         <v>-5.3763440860215006E-3</v>
@@ -13543,7 +13801,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13581,7 +13839,7 @@
         <v>1.2972972972972899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13630,7 +13888,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.16666666666666649</v>
@@ -13687,7 +13945,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13725,7 +13983,7 @@
         <v>0.102150537634408</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -13774,7 +14032,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>B9-B8</f>
         <v>-6.1290322580644999E-2</v>
@@ -13831,7 +14089,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -13869,7 +14127,7 @@
         <v>1.72043010752688E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -13918,7 +14176,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>B12-B11</f>
         <v>2.7956989247311801E-2</v>
@@ -13975,7 +14233,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14013,7 +14271,7 @@
         <v>7.5268817204301001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14062,7 +14320,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>B15-B14</f>
         <v>0</v>
@@ -14119,7 +14377,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14157,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14206,7 +14464,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14263,7 +14521,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14312,7 +14570,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -14361,7 +14619,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>B21-B20</f>
         <v>0.11111111111111105</v>
@@ -14418,7 +14676,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -14442,7 +14700,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -14491,7 +14749,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -14529,7 +14787,7 @@
         <v>0.106007464655154</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -14567,7 +14825,7 @@
         <v>8.7963034747812002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B26-B25</f>
         <v>-1.8959854594701009E-2</v>
@@ -14624,7 +14882,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -14662,7 +14920,7 @@
         <v>1.7596380894269199E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -14700,7 +14958,7 @@
         <v>4.5729414435914897E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <f>B29-B28</f>
         <v>0.18335792402443818</v>
@@ -14757,7 +15015,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -14795,7 +15053,7 @@
         <v>0.15013159966174</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -14833,7 +15091,7 @@
         <v>0.12978462380310801</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B32-B31</f>
         <v>-2.0523719823140996E-2</v>
@@ -14890,7 +15148,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -14928,7 +15186,7 @@
         <v>1.27653828984501E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -14966,7 +15224,7 @@
         <v>1.9595234617052398E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>B35-B34</f>
         <v>3.4898425521377202E-2</v>
@@ -15023,7 +15281,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -15061,7 +15319,7 @@
         <v>2.08590758346518E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -15099,7 +15357,7 @@
         <v>7.5652287489686998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>B38-B37</f>
         <v>-1.5668552034744002E-2</v>
@@ -15156,7 +15414,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -15194,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -15232,7 +15490,7 @@
         <v>1.3279876382555999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f>B41-B40</f>
         <v>-4.159707604672E-4</v>
@@ -15278,7 +15536,7 @@
         <v>1.3279876382555999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
@@ -15316,7 +15574,7 @@
         <v>1.82726993675838E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -15354,7 +15612,7 @@
         <v>5.8309480792077803E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f>B44-B43</f>
         <v>0.146315058347539</v>

--- a/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2016SB5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DEA10A-98C8-EF4F-9DFA-FE5678082164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8673-4C5C-4EC8-984C-089C7E8621D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
   <si>
     <t>metric</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>cat</t>
+  </si>
+  <si>
+    <t>bert-e2e-absa</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1996,7 +1999,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2038,7 +2041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:f>Sheet2!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2090,7 +2093,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$31</c:f>
+              <c:f>Sheet2!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2167,7 +2170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2296,7 +2299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2425,7 +2428,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2552,7 +2555,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2681,7 +2684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2808,7 +2811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$L$42</c:f>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4274,7 +4277,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>242168</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>34535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4312,7 +4315,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>306348</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>14059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4646,14 +4649,14 @@
       <selection activeCell="B46" sqref="B46:L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>3.0537634408602101E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>1.97849462365591E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>5.5591397849462003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>5.0358422939068101E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>0.112716333845366</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>0.14099590373783899</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>0.33684587813619998</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>8.7963034747812002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>9.8424187329232499E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>0.14532827122674299</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>5.0358422939068101E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>7.1089477726574493E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>7.5577828981054695E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>8.4169425111250806E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>7.41935483870967E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>0.15053763440860199</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0.187096774193548</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>0.467741935483871</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6215,7 +6218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>1.6648648648648599E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>9.9459459459458992E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>6.0864864864864001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>2.5963963963963901E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>5.7073359073358997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>6.7325611325611295E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>0.35941312741312698</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>4.5729414435914897E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>4.9369348994921201E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>0.11020317849335701</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>2.5963963963963901E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>3.7589146289146197E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>3.8983969683969603E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>4.7005460901022297E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>3.3513513513513497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>8.21621621621621E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>9.7297297297297303E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>0.494054054054054</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7848,7 +7851,7 @@
         <v>5.65591397849462E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>3.5806451612903099E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>7.0322580645161004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -8061,7 +8064,7 @@
         <v>5.1164874551971301E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>0.177980030721966</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>0.225381464413722</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>0.42509216589861698</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>0.12978462380310801</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>0.14699987907790399</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>0.19329192535780701</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>5.1164874551971301E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>9.7770139955623794E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8771,7 +8774,7 @@
         <v>0.105352811913295</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>0.11433836469559799</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>8.0645161290322495E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>0.26236559139784899</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>0.31827956989247302</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>0.543010752688172</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>7.3118279569891996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>4.7311827956988996E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>6.0322580645161003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>1.28059395801331E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>2.1121351766512999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>2.573732718894E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>0.34181515616999403</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9907,7 +9910,7 @@
         <v>1.9595234617052398E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>2.1392172320925999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -10049,7 +10052,7 @@
         <v>8.6899192253336893E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>1.28059395801331E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>1.6031746031746001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10262,7 +10265,7 @@
         <v>1.66558926437958E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>2.4865359397932E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>2.1505376344085999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>3.5483870967741901E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>4.6236559139784902E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10617,7 +10620,7 @@
         <v>0.48172043010752602</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10830,7 +10833,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>1.8709677419354798E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>5.9139784946236002E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>1.1136712749615001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -11114,7 +11117,7 @@
         <v>6.6743471582180998E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>8.9546850998463906E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>0.31571684587813598</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>7.5652287489686998E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11469,7 +11472,7 @@
         <v>3.7008619384883701E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>8.8649120032295303E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>1.1136712749615001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11682,7 +11685,7 @@
         <v>3.2854582693292002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11753,7 +11756,7 @@
         <v>1.3278321304626899E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>2.2282738789709999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>6.4516129032258004E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>3.2258064516128997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>0.18602150537634399</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>0.46989247311827897</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>8.6021505376339999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>8.6021505376339999E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>1.0752688172039999E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12605,7 +12608,7 @@
         <v>2.1249359959036999E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>3.8376856118790999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>4.3497183819764E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12818,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>1.3279876382555999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12960,7 +12963,7 @@
         <v>1.9909711361929998E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -13031,7 +13034,7 @@
         <v>2.1761122844195001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -13173,7 +13176,7 @@
         <v>7.5524833589340004E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>9.9547704386410011E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>1.0224261370271001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13386,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>4.3010752688172E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13528,7 +13531,7 @@
         <v>7.5268817204301001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13606,20 +13609,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13657,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>8.3870967741935407E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13744,7 +13747,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3-B2</f>
         <v>-5.3763440860215006E-3</v>
@@ -13801,7 +13804,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13839,7 +13842,7 @@
         <v>1.2972972972972899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13888,7 +13891,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.16666666666666649</v>
@@ -13945,7 +13948,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13983,7 +13986,7 @@
         <v>0.102150537634408</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -14032,7 +14035,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B9-B8</f>
         <v>-6.1290322580644999E-2</v>
@@ -14089,7 +14092,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -14127,7 +14130,7 @@
         <v>1.72043010752688E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -14176,7 +14179,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>B12-B11</f>
         <v>2.7956989247311801E-2</v>
@@ -14233,7 +14236,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14271,7 +14274,7 @@
         <v>7.5268817204301001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14320,7 +14323,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15-B14</f>
         <v>0</v>
@@ -14377,7 +14380,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14464,7 +14467,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14521,7 +14524,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14570,7 +14573,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -14619,7 +14622,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B21-B20</f>
         <v>0.11111111111111105</v>
@@ -14676,18 +14679,43 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23">
+        <v>0.68444444444444397</v>
+      </c>
+      <c r="C23">
+        <v>0.60666666666666602</v>
+      </c>
+      <c r="D23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.49444444444444402</v>
+      </c>
+      <c r="F23">
+        <v>0.40111111111111097</v>
+      </c>
+      <c r="G23">
+        <v>0.34555555555555501</v>
+      </c>
+      <c r="H23">
+        <v>0.27444444444444399</v>
+      </c>
+      <c r="I23">
+        <v>0.21444444444444399</v>
+      </c>
+      <c r="J23">
+        <v>0.15666666666666601</v>
+      </c>
+      <c r="K23">
+        <v>8.4444444444444405E-2</v>
+      </c>
+      <c r="L23">
+        <v>4.4444444444444401E-3</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -14700,42 +14728,42 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.66222222222222205</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>0.60222222222222199</v>
       </c>
       <c r="D24">
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>0.473333333333333</v>
       </c>
       <c r="F24">
-        <v>0.4</v>
+        <v>0.404444444444444</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.32888888888888801</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.28111111111111098</v>
       </c>
       <c r="I24">
-        <v>0.7</v>
+        <v>0.193333333333333</v>
       </c>
       <c r="J24">
-        <v>0.8</v>
+        <v>0.13444444444444401</v>
       </c>
       <c r="K24">
-        <v>0.9</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>5.5555555555555497E-3</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14749,126 +14777,123 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>153</v>
-      </c>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0.12896636680937801</v>
+        <f>B24-B23</f>
+        <v>-2.2222222222221921E-2</v>
       </c>
       <c r="C25">
-        <v>0.127843215188257</v>
+        <f t="shared" ref="C25:L25" si="7">C24-C23</f>
+        <v>-4.444444444444029E-3</v>
       </c>
       <c r="D25">
-        <v>0.12665803510486001</v>
+        <f t="shared" si="7"/>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="E25">
-        <v>0.11968810518247899</v>
+        <f t="shared" si="7"/>
+        <v>-2.1111111111111025E-2</v>
       </c>
       <c r="F25">
-        <v>0.12039566666865401</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333330217E-3</v>
       </c>
       <c r="G25">
-        <v>0.11852154294405901</v>
+        <f t="shared" si="7"/>
+        <v>-1.6666666666666996E-2</v>
       </c>
       <c r="H25">
-        <v>0.112200166555197</v>
+        <f t="shared" si="7"/>
+        <v>6.6666666666669872E-3</v>
       </c>
       <c r="I25">
-        <v>0.116074919368526</v>
+        <f t="shared" si="7"/>
+        <v>-2.1111111111110997E-2</v>
       </c>
       <c r="J25">
-        <v>0.110294253440294</v>
+        <f t="shared" si="7"/>
+        <v>-2.2222222222222004E-2</v>
       </c>
       <c r="K25">
-        <v>0.10857211537226</v>
+        <f t="shared" si="7"/>
+        <v>-6.6666666666667096E-3</v>
       </c>
       <c r="L25">
-        <v>0.106007464655154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26">
-        <v>0.110006512214677</v>
-      </c>
-      <c r="C26">
-        <v>0.107994577435072</v>
-      </c>
-      <c r="D26">
-        <v>0.100601131662111</v>
-      </c>
-      <c r="E26">
-        <v>0.102118294213748</v>
-      </c>
-      <c r="F26">
-        <v>0.101635927409014</v>
-      </c>
-      <c r="G26">
-        <v>9.5655032003671897E-2</v>
-      </c>
-      <c r="H26">
-        <v>9.3724829601848303E-2</v>
-      </c>
-      <c r="I26">
-        <v>9.6151841328196805E-2</v>
-      </c>
-      <c r="J26">
-        <v>9.2095315236448996E-2</v>
-      </c>
-      <c r="K26">
-        <v>8.9935989417280399E-2</v>
-      </c>
-      <c r="L26">
-        <v>8.7963034747812002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1.1111111111111096E-3</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B27">
-        <f>B26-B25</f>
-        <v>-1.8959854594701009E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>-1.9848637753185003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
-        <v>-2.605690344274901E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>-1.7569810968730989E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
-        <v>-1.8759739259640001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
-        <v>-2.2866510940387108E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
-        <v>-1.8475336953348701E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
-        <v>-1.9923078040329195E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>-1.8198938203845008E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
-        <v>-1.8636125954979599E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
-        <v>-1.8044429907341994E-2</v>
+        <v>1</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -14882,126 +14907,126 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28">
-        <v>3.18763444246178E-2</v>
+        <v>0.12896636680937801</v>
       </c>
       <c r="C28">
-        <v>2.6521196933422302E-2</v>
+        <v>0.127843215188257</v>
       </c>
       <c r="D28">
-        <v>2.4902422376077E-2</v>
+        <v>0.12665803510486001</v>
       </c>
       <c r="E28">
-        <v>2.3874567289282601E-2</v>
+        <v>0.11968810518247899</v>
       </c>
       <c r="F28">
-        <v>2.2783546019296701E-2</v>
+        <v>0.12039566666865401</v>
       </c>
       <c r="G28">
-        <v>2.1743542822337699E-2</v>
+        <v>0.11852154294405901</v>
       </c>
       <c r="H28">
-        <v>1.6767236000373199E-2</v>
+        <v>0.112200166555197</v>
       </c>
       <c r="I28">
-        <v>1.6835798420584198E-2</v>
+        <v>0.116074919368526</v>
       </c>
       <c r="J28">
-        <v>1.6048275759206799E-2</v>
+        <v>0.110294253440294</v>
       </c>
       <c r="K28">
-        <v>1.8595516111696801E-2</v>
+        <v>0.10857211537226</v>
       </c>
       <c r="L28">
-        <v>1.7596380894269199E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.106007464655154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.21523426844905599</v>
+        <v>0.110006512214677</v>
       </c>
       <c r="C29">
-        <v>0.14392318472781501</v>
+        <v>0.107994577435072</v>
       </c>
       <c r="D29">
-        <v>0.181607788441079</v>
+        <v>0.100601131662111</v>
       </c>
       <c r="E29">
-        <v>0.106935924174963</v>
+        <v>0.102118294213748</v>
       </c>
       <c r="F29">
-        <v>0.116703351594105</v>
+        <v>0.101635927409014</v>
       </c>
       <c r="G29">
-        <v>0.128507338851193</v>
+        <v>9.5655032003671897E-2</v>
       </c>
       <c r="H29">
-        <v>5.2972051340737299E-2</v>
+        <v>9.3724829601848303E-2</v>
       </c>
       <c r="I29">
-        <v>5.9853102644698897E-2</v>
+        <v>9.6151841328196805E-2</v>
       </c>
       <c r="J29">
-        <v>5.2187691626350202E-2</v>
+        <v>9.2095315236448996E-2</v>
       </c>
       <c r="K29">
-        <v>3.9663513477737299E-2</v>
+        <v>8.9935989417280399E-2</v>
       </c>
       <c r="L29">
-        <v>4.5729414435914897E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8.7963034747812002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>0.18335792402443818</v>
+        <v>-1.8959854594701009E-2</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>0.1174019877943927</v>
+        <v>-1.9848637753185003E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>0.15670536606500199</v>
+        <v>-2.605690344274901E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>8.3061356885680407E-2</v>
+        <v>-1.7569810968730989E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>9.3919805574808293E-2</v>
+        <v>-1.8759739259640001E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>0.1067637960288553</v>
+        <v>-2.2866510940387108E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>3.6204815340364099E-2</v>
+        <v>-1.8475336953348701E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>4.3017304224114698E-2</v>
+        <v>-1.9923078040329195E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>3.6139415867143407E-2</v>
+        <v>-1.8198938203845008E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>2.1067997366040498E-2</v>
+        <v>-1.8636125954979599E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>2.8133033541645699E-2</v>
+        <v>-1.8044429907341994E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -15015,126 +15040,126 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31">
-        <v>0.209103263856945</v>
+        <v>3.18763444246178E-2</v>
       </c>
       <c r="C31">
-        <v>0.20145038742409599</v>
+        <v>2.6521196933422302E-2</v>
       </c>
       <c r="D31">
-        <v>0.19554629200243501</v>
+        <v>2.4902422376077E-2</v>
       </c>
       <c r="E31">
-        <v>0.18787835863237101</v>
+        <v>2.3874567289282601E-2</v>
       </c>
       <c r="F31">
-        <v>0.184789513332728</v>
+        <v>2.2783546019296701E-2</v>
       </c>
       <c r="G31">
-        <v>0.17904921855818901</v>
+        <v>2.1743542822337699E-2</v>
       </c>
       <c r="H31">
-        <v>0.17199607430108799</v>
+        <v>1.6767236000373199E-2</v>
       </c>
       <c r="I31">
-        <v>0.16753014673479799</v>
+        <v>1.6835798420584198E-2</v>
       </c>
       <c r="J31">
-        <v>0.16053697640269499</v>
+        <v>1.6048275759206799E-2</v>
       </c>
       <c r="K31">
-        <v>0.15470065886069201</v>
+        <v>1.8595516111696801E-2</v>
       </c>
       <c r="L31">
-        <v>0.15013159966174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.7596380894269199E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B32">
-        <v>0.188579544033804</v>
+        <v>0.21523426844905599</v>
       </c>
       <c r="C32">
-        <v>0.18517262530790199</v>
+        <v>0.14392318472781501</v>
       </c>
       <c r="D32">
-        <v>0.178669774896596</v>
+        <v>0.181607788441079</v>
       </c>
       <c r="E32">
-        <v>0.17560794609606201</v>
+        <v>0.106935924174963</v>
       </c>
       <c r="F32">
-        <v>0.16029031786710099</v>
+        <v>0.116703351594105</v>
       </c>
       <c r="G32">
-        <v>0.157873209271431</v>
+        <v>0.128507338851193</v>
       </c>
       <c r="H32">
-        <v>0.152612658605912</v>
+        <v>5.2972051340737299E-2</v>
       </c>
       <c r="I32">
-        <v>0.14641301667894099</v>
+        <v>5.9853102644698897E-2</v>
       </c>
       <c r="J32">
-        <v>0.14369877218827701</v>
+        <v>5.2187691626350202E-2</v>
       </c>
       <c r="K32">
-        <v>0.13712089375466399</v>
+        <v>3.9663513477737299E-2</v>
       </c>
       <c r="L32">
-        <v>0.12978462380310801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4.5729414435914897E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>-2.0523719823140996E-2</v>
+        <v>0.18335792402443818</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>-1.6277762116194E-2</v>
+        <v>0.1174019877943927</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>-1.6876517105839012E-2</v>
+        <v>0.15670536606500199</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>-1.2270412536309006E-2</v>
+        <v>8.3061356885680407E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>-2.4499195465627011E-2</v>
+        <v>9.3919805574808293E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>-2.1176009286758002E-2</v>
+        <v>0.1067637960288553</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>-1.9383415695175987E-2</v>
+        <v>3.6204815340364099E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>-2.1117130055856997E-2</v>
+        <v>4.3017304224114698E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>-1.6838204214417979E-2</v>
+        <v>3.6139415867143407E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>-1.7579765106028017E-2</v>
+        <v>2.1067997366040498E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>-2.0346975858631988E-2</v>
+        <v>2.8133033541645699E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -15148,126 +15173,126 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34">
-        <v>2.0779968403143799E-2</v>
+        <v>0.209103263856945</v>
       </c>
       <c r="C34">
-        <v>1.4801826504551601E-2</v>
+        <v>0.20145038742409599</v>
       </c>
       <c r="D34">
-        <v>1.2421686890274199E-2</v>
+        <v>0.19554629200243501</v>
       </c>
       <c r="E34">
-        <v>1.7345608860947302E-2</v>
+        <v>0.18787835863237101</v>
       </c>
       <c r="F34">
-        <v>1.1485350008138001E-2</v>
+        <v>0.184789513332728</v>
       </c>
       <c r="G34">
-        <v>1.55888529501717E-2</v>
+        <v>0.17904921855818901</v>
       </c>
       <c r="H34">
-        <v>1.18686240442999E-2</v>
+        <v>0.17199607430108799</v>
       </c>
       <c r="I34">
-        <v>1.4857721674894801E-2</v>
+        <v>0.16753014673479799</v>
       </c>
       <c r="J34">
-        <v>1.5698867700739801E-2</v>
+        <v>0.16053697640269499</v>
       </c>
       <c r="K34">
-        <v>1.3978388635172499E-2</v>
+        <v>0.15470065886069201</v>
       </c>
       <c r="L34">
-        <v>1.27653828984501E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.15013159966174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B35">
-        <v>5.5678393924521001E-2</v>
+        <v>0.188579544033804</v>
       </c>
       <c r="C35">
-        <v>5.76642770699691E-2</v>
+        <v>0.18517262530790199</v>
       </c>
       <c r="D35">
-        <v>4.5943729149275199E-2</v>
+        <v>0.178669774896596</v>
       </c>
       <c r="E35">
-        <v>4.5691713548161102E-2</v>
+        <v>0.17560794609606201</v>
       </c>
       <c r="F35">
-        <v>3.5981518365751503E-2</v>
+        <v>0.16029031786710099</v>
       </c>
       <c r="G35">
-        <v>3.26783460292649E-2</v>
+        <v>0.157873209271431</v>
       </c>
       <c r="H35">
-        <v>2.83807765587657E-2</v>
+        <v>0.152612658605912</v>
       </c>
       <c r="I35">
-        <v>2.7267785582200901E-2</v>
+        <v>0.14641301667894099</v>
       </c>
       <c r="J35">
-        <v>2.7110399738562101E-2</v>
+        <v>0.14369877218827701</v>
       </c>
       <c r="K35">
-        <v>2.1221628228729798E-2</v>
+        <v>0.13712089375466399</v>
       </c>
       <c r="L35">
-        <v>1.9595234617052398E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.12978462380310801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>3.4898425521377202E-2</v>
+        <v>-2.0523719823140996E-2</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>4.2862450565417501E-2</v>
+        <v>-1.6277762116194E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>3.3522042259001003E-2</v>
+        <v>-1.6876517105839012E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>2.83461046872138E-2</v>
+        <v>-1.2270412536309006E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>2.44961683576135E-2</v>
+        <v>-2.4499195465627011E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>1.7089493079093201E-2</v>
+        <v>-2.1176009286758002E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>1.6512152514465799E-2</v>
+        <v>-1.9383415695175987E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>1.2410063907306101E-2</v>
+        <v>-2.1117130055856997E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>1.1411532037822299E-2</v>
+        <v>-1.6838204214417979E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>7.2432395935572991E-3</v>
+        <v>-1.7579765106028017E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>6.8298517186022988E-3</v>
+        <v>-2.0346975858631988E-2</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15281,126 +15306,126 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37">
-        <v>2.6265462795475199E-2</v>
+        <v>2.0779968403143799E-2</v>
       </c>
       <c r="C37">
-        <v>2.5632443045131199E-2</v>
+        <v>1.4801826504551601E-2</v>
       </c>
       <c r="D37">
-        <v>2.47607412759672E-2</v>
+        <v>1.2421686890274199E-2</v>
       </c>
       <c r="E37">
-        <v>2.1346956173333001E-2</v>
+        <v>1.7345608860947302E-2</v>
       </c>
       <c r="F37">
-        <v>1.9494017872522099E-2</v>
+        <v>1.1485350008138001E-2</v>
       </c>
       <c r="G37">
-        <v>2.24869335075383E-2</v>
+        <v>1.55888529501717E-2</v>
       </c>
       <c r="H37">
-        <v>2.0964062626144E-2</v>
+        <v>1.18686240442999E-2</v>
       </c>
       <c r="I37">
-        <v>2.1802652994154199E-2</v>
+        <v>1.4857721674894801E-2</v>
       </c>
       <c r="J37">
-        <v>1.9415367713323198E-2</v>
+        <v>1.5698867700739801E-2</v>
       </c>
       <c r="K37">
-        <v>1.9231935037184799E-2</v>
+        <v>1.3978388635172499E-2</v>
       </c>
       <c r="L37">
-        <v>2.08590758346518E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.27653828984501E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B38">
-        <v>1.05969107607312E-2</v>
+        <v>5.5678393924521001E-2</v>
       </c>
       <c r="C38">
-        <v>1.04253698806467E-2</v>
+        <v>5.76642770699691E-2</v>
       </c>
       <c r="D38">
-        <v>9.9668927704972994E-3</v>
+        <v>4.5943729149275199E-2</v>
       </c>
       <c r="E38">
-        <v>9.3716204834612994E-3</v>
+        <v>4.5691713548161102E-2</v>
       </c>
       <c r="F38">
-        <v>9.5980363018065996E-3</v>
+        <v>3.5981518365751503E-2</v>
       </c>
       <c r="G38">
-        <v>1.03520207194863E-2</v>
+        <v>3.26783460292649E-2</v>
       </c>
       <c r="H38">
-        <v>7.6209291625345997E-3</v>
+        <v>2.83807765587657E-2</v>
       </c>
       <c r="I38">
-        <v>8.8257269881099002E-3</v>
+        <v>2.7267785582200901E-2</v>
       </c>
       <c r="J38">
-        <v>1.01831485443635E-2</v>
+        <v>2.7110399738562101E-2</v>
       </c>
       <c r="K38">
-        <v>9.3792699322571994E-3</v>
+        <v>2.1221628228729798E-2</v>
       </c>
       <c r="L38">
-        <v>7.5652287489686998E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.9595234617052398E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38-B37</f>
-        <v>-1.5668552034744002E-2</v>
+        <v>3.4898425521377202E-2</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" si="11">C38-C37</f>
-        <v>-1.5207073164484499E-2</v>
+        <v>4.2862450565417501E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="11"/>
-        <v>-1.47938485054699E-2</v>
+        <v>3.3522042259001003E-2</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
-        <v>-1.1975335689871702E-2</v>
+        <v>2.83461046872138E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="11"/>
-        <v>-9.895981570715499E-3</v>
+        <v>2.44961683576135E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>-1.2134912788052E-2</v>
+        <v>1.7089493079093201E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
-        <v>-1.3343133463609401E-2</v>
+        <v>1.6512152514465799E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="11"/>
-        <v>-1.2976926006044298E-2</v>
+        <v>1.2410063907306101E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="11"/>
-        <v>-9.2322191689596985E-3</v>
+        <v>1.1411532037822299E-2</v>
       </c>
       <c r="K39">
         <f t="shared" si="11"/>
-        <v>-9.8526651049275996E-3</v>
+        <v>7.2432395935572991E-3</v>
       </c>
       <c r="L39">
         <f t="shared" si="11"/>
-        <v>-1.3293847085683101E-2</v>
+        <v>6.8298517186022988E-3</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -15414,248 +15439,503 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40">
-        <v>4.159707604672E-4</v>
+        <v>2.6265462795475199E-2</v>
       </c>
       <c r="C40">
-        <v>1.839277139087E-3</v>
+        <v>2.5632443045131199E-2</v>
       </c>
       <c r="D40">
-        <v>1.4108072850780001E-4</v>
+        <v>2.47607412759672E-2</v>
       </c>
       <c r="E40">
-        <v>1.4794310108530999E-3</v>
+        <v>2.1346956173333001E-2</v>
       </c>
       <c r="F40">
-        <v>7.9268571265509998E-4</v>
+        <v>1.9494017872522099E-2</v>
       </c>
       <c r="G40">
-        <v>8.319415209344E-4</v>
+        <v>2.24869335075383E-2</v>
       </c>
       <c r="H40">
-        <v>4.0592200672370001E-4</v>
+        <v>2.0964062626144E-2</v>
       </c>
       <c r="I40">
-        <v>1.8718036529179001E-3</v>
+        <v>2.1802652994154199E-2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.9415367713323198E-2</v>
       </c>
       <c r="K40">
-        <v>2.3599902444944002E-3</v>
+        <v>1.9231935037184799E-2</v>
       </c>
       <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2.08590758346518E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1.05969107607312E-2</v>
       </c>
       <c r="C41">
-        <v>6.4387537026290001E-4</v>
+        <v>1.04253698806467E-2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>9.9668927704972994E-3</v>
       </c>
       <c r="E41">
-        <v>1.8245682020261E-3</v>
+        <v>9.3716204834612994E-3</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>9.5980363018065996E-3</v>
       </c>
       <c r="G41">
-        <v>5.3763440860210001E-4</v>
+        <v>1.03520207194863E-2</v>
       </c>
       <c r="H41">
-        <v>6.9469715036849997E-4</v>
+        <v>7.6209291625345997E-3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>8.8257269881099002E-3</v>
       </c>
       <c r="J41">
-        <v>5.3763440860210001E-4</v>
+        <v>1.01831485443635E-2</v>
       </c>
       <c r="K41">
-        <v>8.8830083716929999E-4</v>
+        <v>9.3792699322571994E-3</v>
       </c>
       <c r="L41">
-        <v>1.3279876382555999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
+        <v>7.5652287489686998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f>B41-B40</f>
-        <v>-4.159707604672E-4</v>
-      </c>
-      <c r="C42" s="1">
+        <v>-1.5668552034744002E-2</v>
+      </c>
+      <c r="C42">
         <f t="shared" ref="C42:L42" si="12">C41-C40</f>
-        <v>-1.1954017688240999E-3</v>
-      </c>
-      <c r="D42" s="1">
+        <v>-1.5207073164484499E-2</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="12"/>
-        <v>-1.4108072850780001E-4</v>
-      </c>
-      <c r="E42" s="1">
+        <v>-1.47938485054699E-2</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="12"/>
-        <v>3.4513719117300009E-4</v>
-      </c>
-      <c r="F42" s="1">
+        <v>-1.1975335689871702E-2</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="12"/>
-        <v>-7.9268571265509998E-4</v>
-      </c>
-      <c r="G42" s="1">
+        <v>-9.895981570715499E-3</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="12"/>
-        <v>-2.9430711233229998E-4</v>
-      </c>
-      <c r="H42" s="1">
+        <v>-1.2134912788052E-2</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="12"/>
-        <v>2.8877514364479995E-4</v>
-      </c>
-      <c r="I42" s="1">
+        <v>-1.3343133463609401E-2</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="12"/>
-        <v>-1.8718036529179001E-3</v>
-      </c>
-      <c r="J42" s="1">
+        <v>-1.2976926006044298E-2</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="12"/>
-        <v>5.3763440860210001E-4</v>
-      </c>
-      <c r="K42" s="1">
+        <v>-9.2322191689596985E-3</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="12"/>
-        <v>-1.4716894073251003E-3</v>
-      </c>
-      <c r="L42" s="1">
+        <v>-9.8526651049275996E-3</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="12"/>
-        <v>1.3279876382555999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-1.3293847085683101E-2</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43">
-        <v>0.49118426092960599</v>
+        <v>4.159707604672E-4</v>
       </c>
       <c r="C43">
-        <v>0.44880928628258898</v>
+        <v>1.839277139087E-3</v>
       </c>
       <c r="D43">
-        <v>0.38557335841370899</v>
+        <v>1.4108072850780001E-4</v>
       </c>
       <c r="E43">
-        <v>0.34026784363832802</v>
+        <v>1.4794310108530999E-3</v>
       </c>
       <c r="F43">
-        <v>0.331232319327673</v>
+        <v>7.9268571265509998E-4</v>
       </c>
       <c r="G43">
-        <v>0.24028347920179599</v>
+        <v>8.319415209344E-4</v>
       </c>
       <c r="H43">
-        <v>0.203766105848182</v>
+        <v>4.0592200672370001E-4</v>
       </c>
       <c r="I43">
-        <v>0.12917500713059599</v>
+        <v>1.8718036529179001E-3</v>
       </c>
       <c r="J43">
-        <v>0.11167099547919</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>4.1056604074180499E-2</v>
+        <v>2.3599902444944002E-3</v>
       </c>
       <c r="L43">
-        <v>1.82726993675838E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B44">
-        <v>0.63749931927714498</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.54222364785119403</v>
+        <v>6.4387537026290001E-4</v>
       </c>
       <c r="D44">
-        <v>0.54794065231974398</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.47444049573630598</v>
+        <v>1.8245682020261E-3</v>
       </c>
       <c r="F44">
-        <v>0.442443533497685</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.34830721309116203</v>
+        <v>5.3763440860210001E-4</v>
       </c>
       <c r="H44">
-        <v>0.25333773062618298</v>
+        <v>6.9469715036849997E-4</v>
       </c>
       <c r="I44">
-        <v>0.21519575803560001</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.144352257344876</v>
+        <v>5.3763440860210001E-4</v>
       </c>
       <c r="K44">
-        <v>0.14461574339351599</v>
+        <v>8.8830083716929999E-4</v>
       </c>
       <c r="L44">
-        <v>5.8309480792077803E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.3279876382555999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>B44-B43</f>
-        <v>0.146315058347539</v>
+        <v>-4.159707604672E-4</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
-        <v>9.3414361568605053E-2</v>
+        <v>-1.1954017688240999E-3</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="13"/>
-        <v>0.16236729390603499</v>
+        <v>-1.4108072850780001E-4</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="13"/>
-        <v>0.13417265209797796</v>
+        <v>3.4513719117300009E-4</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="13"/>
-        <v>0.11121121417001201</v>
+        <v>-7.9268571265509998E-4</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="13"/>
-        <v>0.10802373388936604</v>
+        <v>-2.9430711233229998E-4</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="13"/>
-        <v>4.9571624778000978E-2</v>
+        <v>2.8877514364479995E-4</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="13"/>
-        <v>8.6020750905004023E-2</v>
+        <v>-1.8718036529179001E-3</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="13"/>
-        <v>3.2681261865685998E-2</v>
+        <v>5.3763440860210001E-4</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="13"/>
-        <v>0.1035591393193355</v>
+        <v>-1.4716894073251003E-3</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="13"/>
+        <v>1.3279876382555999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46">
+        <v>0.49118426092960599</v>
+      </c>
+      <c r="C46">
+        <v>0.44880928628258898</v>
+      </c>
+      <c r="D46">
+        <v>0.38557335841370899</v>
+      </c>
+      <c r="E46">
+        <v>0.34026784363832802</v>
+      </c>
+      <c r="F46">
+        <v>0.331232319327673</v>
+      </c>
+      <c r="G46">
+        <v>0.24028347920179599</v>
+      </c>
+      <c r="H46">
+        <v>0.203766105848182</v>
+      </c>
+      <c r="I46">
+        <v>0.12917500713059599</v>
+      </c>
+      <c r="J46">
+        <v>0.11167099547919</v>
+      </c>
+      <c r="K46">
+        <v>4.1056604074180499E-2</v>
+      </c>
+      <c r="L46">
+        <v>1.82726993675838E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47">
+        <v>0.63749931927714498</v>
+      </c>
+      <c r="C47">
+        <v>0.54222364785119403</v>
+      </c>
+      <c r="D47">
+        <v>0.54794065231974398</v>
+      </c>
+      <c r="E47">
+        <v>0.47444049573630598</v>
+      </c>
+      <c r="F47">
+        <v>0.442443533497685</v>
+      </c>
+      <c r="G47">
+        <v>0.34830721309116203</v>
+      </c>
+      <c r="H47">
+        <v>0.25333773062618298</v>
+      </c>
+      <c r="I47">
+        <v>0.21519575803560001</v>
+      </c>
+      <c r="J47">
+        <v>0.144352257344876</v>
+      </c>
+      <c r="K47">
+        <v>0.14461574339351599</v>
+      </c>
+      <c r="L47">
+        <v>5.8309480792077803E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>B47-B46</f>
+        <v>0.146315058347539</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48:L48" si="14">C47-C46</f>
+        <v>9.3414361568605053E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16236729390603499</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.13417265209797796</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11121121417001201</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.10802373388936604</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="14"/>
+        <v>4.9571624778000978E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6020750905004023E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="14"/>
+        <v>3.2681261865685998E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1035591393193355</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="14"/>
         <v>4.0036781424494003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>0.68057902200971099</v>
+      </c>
+      <c r="C49">
+        <v>0.60690372352815003</v>
+      </c>
+      <c r="D49">
+        <v>0.54411294560105905</v>
+      </c>
+      <c r="E49">
+        <v>0.49385297176882897</v>
+      </c>
+      <c r="F49">
+        <v>0.403279772139441</v>
+      </c>
+      <c r="G49">
+        <v>0.34144896156337601</v>
+      </c>
+      <c r="H49">
+        <v>0.27355628727769299</v>
+      </c>
+      <c r="I49">
+        <v>0.221560823443187</v>
+      </c>
+      <c r="J49">
+        <v>0.151836470417022</v>
+      </c>
+      <c r="K49">
+        <v>9.1215097609429099E-2</v>
+      </c>
+      <c r="L49">
+        <v>8.0188725085276504E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50">
+        <v>0.67740088215039695</v>
+      </c>
+      <c r="C50">
+        <v>0.61262529588402004</v>
+      </c>
+      <c r="D50">
+        <v>0.53524461511563903</v>
+      </c>
+      <c r="E50">
+        <v>0.48230530567454499</v>
+      </c>
+      <c r="F50">
+        <v>0.40843492517136998</v>
+      </c>
+      <c r="G50">
+        <v>0.33982057420239897</v>
+      </c>
+      <c r="H50">
+        <v>0.28320135413332798</v>
+      </c>
+      <c r="I50">
+        <v>0.196669200635715</v>
+      </c>
+      <c r="J50">
+        <v>0.138177714799089</v>
+      </c>
+      <c r="K50">
+        <v>8.5730043091132399E-2</v>
+      </c>
+      <c r="L50">
+        <v>8.7911397192063194E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>B50-B49</f>
+        <v>-3.1781398593140331E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:L51" si="15">C50-C49</f>
+        <v>5.7215723558700082E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="15"/>
+        <v>-8.8683304854200173E-3</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.1547666094283981E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="15"/>
+        <v>5.1551530319289829E-3</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.628387360977035E-3</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="15"/>
+        <v>9.6450668556349872E-3</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.4891622807472008E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.3658755617933005E-2</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="15"/>
+        <v>-5.4850545182967003E-3</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="15"/>
+        <v>7.7226721067866905E-4</v>
       </c>
     </row>
   </sheetData>

--- a/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2016SB5/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2016SB5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA8673-4C5C-4EC8-984C-089C7E8621D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6337816-C6CC-457F-A72E-B8D95FBD343A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16110" windowHeight="12990" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>bert-e2e-absa</t>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -616,7 +616,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-16-restaurant</a:t>
             </a:r>
           </a:p>
@@ -626,8 +626,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2287825059101655"/>
-          <c:y val="0.10648148148148148"/>
+          <c:x val="0.26128841607565012"/>
+          <c:y val="7.4735345581802282E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -643,7 +643,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -663,8 +663,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.2222222222221921E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.444444444444029E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1111111111111025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333330217E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6666666666666996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6666666666669872E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1111111111110997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2222222222222004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.6666666666667096E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1111111111111096E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4403-4967-ACFA-F212D98348F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$20</c:f>
@@ -793,7 +920,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -922,7 +1049,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -1051,7 +1178,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1179,135 +1306,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$13:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.7956989247311801E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1935483870967696E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9032258064516099E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8279569892473105E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0430107526881704E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8279569892473101E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1827956989247299E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3010752688171991E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1505376344085995E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4516129032258004E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3010752688171991E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1436,7 +1436,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1571,6 +1571,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$13:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2.7956989247311801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.1935483870967696E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9032258064516099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8279569892473105E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.0430107526881704E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.8279569892473101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1827956989247299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.3010752688171991E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.1505376344085995E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.4516129032258004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.3010752688171991E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -1681,7 +1832,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.30000000000000004"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1806,10 +1957,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73687048933621624"/>
-          <c:y val="0.16830069176373885"/>
-          <c:w val="0.23911635124259323"/>
-          <c:h val="0.53300669587085503"/>
+          <c:x val="0.69549943225181954"/>
+          <c:y val="0.16036432945881768"/>
+          <c:w val="0.30412827385938462"/>
+          <c:h val="0.60046712910886146"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1825,7 +1976,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1903,7 +2054,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1913,7 +2064,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-16-restaurant</a:t>
             </a:r>
           </a:p>
@@ -1923,8 +2074,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23469267139479907"/>
-          <c:y val="0.10648148148148148"/>
+          <c:x val="0.25833333333333336"/>
+          <c:y val="7.4735345581802282E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1940,7 +2091,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1960,8 +2111,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.1781398593140331E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7215723558700082E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.8683304854200173E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1547666094283981E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1551530319289829E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.628387360977035E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6450668556349872E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.4891622807472008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3658755617933005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.4850545182967003E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7226721067866905E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68FA-4A37-B1BB-4C6FC81BAD1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$46</c:f>
@@ -2090,7 +2368,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$34</c:f>
@@ -2219,7 +2497,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2348,7 +2626,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2476,135 +2754,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.4898425521377202E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2862450565417501E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3522042259001003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.83461046872138E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.44961683576135E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7089493079093201E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6512152514465799E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2410063907306101E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1411532037822299E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2432395935572991E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8298517186022988E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2733,7 +2884,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2868,6 +3019,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$39:$L$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>3.4898425521377202E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.2862450565417501E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.3522042259001003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.83461046872138E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.44961683576135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.7089493079093201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6512152514465799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2410063907306101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1411532037822299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2432395935572991E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.8298517186022988E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -2978,7 +3280,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.30000000000000004"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3103,10 +3405,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73697182592951338"/>
-          <c:y val="0.20209791140279162"/>
-          <c:w val="0.23970744061710758"/>
-          <c:h val="0.55553817563022356"/>
+          <c:x val="0.69264556691051915"/>
+          <c:y val="0.16241532308461445"/>
+          <c:w val="0.29880912492321438"/>
+          <c:h val="0.59918885139357581"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3122,7 +3424,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4276,9 +4578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>242168</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>34535</xdr:rowOff>
+      <xdr:colOff>196326</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4314,9 +4616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>306348</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>14059</xdr:rowOff>
+      <xdr:colOff>272730</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13611,8 +13913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="L9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
